--- a/ECAD/PCBs/OH_Specific/Backlighting/Caution_lights_panel/manufacturing/Caution_Light_Panel_BOM.xlsx
+++ b/ECAD/PCBs/OH_Specific/Backlighting/Caution_lights_panel/manufacturing/Caution_Light_Panel_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e59a830b46a4ae1e/Desktop/APU Panel PCB V1/Caution_lights_panel/manufacturing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e59a830b46a4ae1e/Desktop/Hornet_Panel_Backlighting/Version_2/Caution_lights_panel/manufacturing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37B77ACA-6A68-44BE-8580-42B3C3519FC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{37B77ACA-6A68-44BE-8580-42B3C3519FC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{343B6FFB-48BE-470B-8281-9271B2424D98}"/>
   <bookViews>
-    <workbookView xWindow="5376" yWindow="3408" windowWidth="23040" windowHeight="12204" xr2:uid="{697B28B8-7759-4539-9BE2-B94229C398CE}"/>
+    <workbookView xWindow="816" yWindow="1356" windowWidth="23040" windowHeight="12204" xr2:uid="{697B28B8-7759-4539-9BE2-B94229C398CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Comment</t>
   </si>
@@ -58,6 +58,27 @@
   </si>
   <si>
     <t>C114586</t>
+  </si>
+  <si>
+    <t>Resistor 470 ohm</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>C23179</t>
+  </si>
+  <si>
+    <t>Capacitor</t>
+  </si>
+  <si>
+    <t>C14663</t>
+  </si>
+  <si>
+    <t>C2-25</t>
   </si>
 </sst>
 </file>
@@ -93,8 +114,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20308A93-761C-4F83-AB75-C987711B3098}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,6 +467,34 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
